--- a/Code/Results/Cases/Case_0_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_242/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1143833326285773</v>
+        <v>0.03562113421745039</v>
       </c>
       <c r="D2">
-        <v>0.512711107385087</v>
+        <v>0.156229611855025</v>
       </c>
       <c r="E2">
-        <v>0.406341813091359</v>
+        <v>0.1225234119618293</v>
       </c>
       <c r="F2">
-        <v>9.316109673025693</v>
+        <v>3.164852129049535</v>
       </c>
       <c r="G2">
-        <v>0.0006195381946504511</v>
+        <v>0.002400743933228427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.318000793399762</v>
+        <v>2.470448866583922</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.0683399631545</v>
+        <v>2.106466521024117</v>
       </c>
       <c r="N2">
-        <v>2.612428229034805</v>
+        <v>1.35901728559125</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0937527007853447</v>
+        <v>0.03273057732545226</v>
       </c>
       <c r="D3">
-        <v>0.421631329976293</v>
+        <v>0.1426978178676563</v>
       </c>
       <c r="E3">
-        <v>0.3522106407528867</v>
+        <v>0.1074248718158941</v>
       </c>
       <c r="F3">
-        <v>7.730140280777618</v>
+        <v>2.913608175433694</v>
       </c>
       <c r="G3">
-        <v>0.0006463033143538117</v>
+        <v>0.002413370137977345</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.070066061288543</v>
+        <v>2.27303571660488</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.970587450652545</v>
+        <v>1.868222204624544</v>
       </c>
       <c r="N3">
-        <v>2.355773612384468</v>
+        <v>1.273358158093657</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08233484175960371</v>
+        <v>0.03100276902115695</v>
       </c>
       <c r="D4">
-        <v>0.370948462517191</v>
+        <v>0.1345767623620162</v>
       </c>
       <c r="E4">
-        <v>0.3197425426469209</v>
+        <v>0.09811675115843599</v>
       </c>
       <c r="F4">
-        <v>6.838531574913731</v>
+        <v>2.762657873889196</v>
       </c>
       <c r="G4">
-        <v>0.0006623358432326083</v>
+        <v>0.002421489262605471</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.368733832754941</v>
+        <v>2.154420543968172</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.33313004578352</v>
+        <v>1.722656868044112</v>
       </c>
       <c r="N4">
-        <v>2.199555769562096</v>
+        <v>1.221123521883698</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07792039663652872</v>
+        <v>0.03030996141485787</v>
       </c>
       <c r="D5">
-        <v>0.3512936568703822</v>
+        <v>0.131312308262693</v>
       </c>
       <c r="E5">
-        <v>0.3066437459921687</v>
+        <v>0.0943143315991648</v>
       </c>
       <c r="F5">
-        <v>6.49092474697278</v>
+        <v>2.701943552075733</v>
       </c>
       <c r="G5">
-        <v>0.0006688169946088709</v>
+        <v>0.002424890636847941</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.095355684542568</v>
+        <v>2.106709905902335</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.080276702346197</v>
+        <v>1.663505478158896</v>
       </c>
       <c r="N5">
-        <v>2.136206656911185</v>
+        <v>1.199930509835099</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07719999076635986</v>
+        <v>0.03019558775420705</v>
       </c>
       <c r="D6">
-        <v>0.3480827816116943</v>
+        <v>0.1307728990121007</v>
       </c>
       <c r="E6">
-        <v>0.3044752961796391</v>
+        <v>0.09368238676326968</v>
       </c>
       <c r="F6">
-        <v>6.43403791636851</v>
+        <v>2.691909267140801</v>
       </c>
       <c r="G6">
-        <v>0.0006698911854404188</v>
+        <v>0.002425461052072966</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.050619079864362</v>
+        <v>2.098824622037171</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.038654143253453</v>
+        <v>1.653693196820456</v>
       </c>
       <c r="N6">
-        <v>2.125705430799542</v>
+        <v>1.196417116903092</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08227442508098193</v>
+        <v>0.03099338056129852</v>
       </c>
       <c r="D7">
-        <v>0.3706796978198952</v>
+        <v>0.1345325577030678</v>
       </c>
       <c r="E7">
-        <v>0.3195654174811011</v>
+        <v>0.09806550777720702</v>
       </c>
       <c r="F7">
-        <v>6.833785386723036</v>
+        <v>2.761835868219691</v>
       </c>
       <c r="G7">
-        <v>0.0006624234080476088</v>
+        <v>0.002421534758538163</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.365000979131452</v>
+        <v>2.153774602206312</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.32969449703242</v>
+        <v>1.721858469403372</v>
       </c>
       <c r="N7">
-        <v>2.198700204907084</v>
+        <v>1.220837325613218</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1069564615866625</v>
+        <v>0.03461438913126358</v>
       </c>
       <c r="D8">
-        <v>0.4799913791440815</v>
+        <v>0.151523575965399</v>
       </c>
       <c r="E8">
-        <v>0.3874730139307729</v>
+        <v>0.1173253187944709</v>
       </c>
       <c r="F8">
-        <v>8.748695598503275</v>
+        <v>3.077514274894781</v>
       </c>
       <c r="G8">
-        <v>0.0006288847990459476</v>
+        <v>0.002405021719130892</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.871463393856061</v>
+        <v>2.401825141204142</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.68062331863257</v>
+        <v>2.024163024651159</v>
       </c>
       <c r="N8">
-        <v>2.523628913915843</v>
+        <v>1.329408598983633</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1708999424244126</v>
+        <v>0.0421130934652183</v>
       </c>
       <c r="D9">
-        <v>0.7596176625256703</v>
+        <v>0.1864348391532644</v>
       </c>
       <c r="E9">
-        <v>0.531671164815485</v>
+        <v>0.1547909305856052</v>
       </c>
       <c r="F9">
-        <v>13.51925058479821</v>
+        <v>3.72447873785535</v>
       </c>
       <c r="G9">
-        <v>0.0005563416417153633</v>
+        <v>0.002375521359838912</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.62793820314701</v>
+        <v>2.910140354498338</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.78721652470341</v>
+        <v>2.623302999363773</v>
       </c>
       <c r="N9">
-        <v>3.173172367742069</v>
+        <v>1.545086185056249</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2452958334842066</v>
+        <v>0.04790103716578642</v>
       </c>
       <c r="D10">
-        <v>1.080278698817125</v>
+        <v>0.2132053107636693</v>
       </c>
       <c r="E10">
-        <v>0.6619658405133535</v>
+        <v>0.1821290808529028</v>
       </c>
       <c r="F10">
-        <v>18.78428382659627</v>
+        <v>4.219182146296873</v>
       </c>
       <c r="G10">
-        <v>0.000487603676717162</v>
+        <v>0.002355565786795926</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.77989544304859</v>
+        <v>3.298805766249416</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.87014388133713</v>
+        <v>3.06829035325751</v>
       </c>
       <c r="N10">
-        <v>3.65853125576453</v>
+        <v>1.705134347064757</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3027599214823624</v>
+        <v>0.05060283496126772</v>
       </c>
       <c r="D11">
-        <v>1.32530516831963</v>
+        <v>0.225661665631776</v>
       </c>
       <c r="E11">
-        <v>0.7462175416241408</v>
+        <v>0.1945248136804167</v>
       </c>
       <c r="F11">
-        <v>22.66310049180856</v>
+        <v>4.448981203440098</v>
       </c>
       <c r="G11">
-        <v>0.0004419992070593424</v>
+        <v>0.002346852125375361</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.84337164849217</v>
+        <v>3.479346337402632</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.94470115064971</v>
+        <v>3.271987933714712</v>
       </c>
       <c r="N11">
-        <v>3.877810989436512</v>
+        <v>1.778271474700631</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3386725074627464</v>
+        <v>0.05163652835884136</v>
       </c>
       <c r="D12">
-        <v>1.47738762359964</v>
+        <v>0.2304214882888402</v>
       </c>
       <c r="E12">
-        <v>0.7947587459584682</v>
+        <v>0.1992128554298347</v>
       </c>
       <c r="F12">
-        <v>25.00544664818443</v>
+        <v>4.536729304073049</v>
       </c>
       <c r="G12">
-        <v>0.0004160527675616612</v>
+        <v>0.002343604177584956</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.695583606301</v>
+        <v>3.548285162186403</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.12300731472783</v>
+        <v>3.349323671978766</v>
       </c>
       <c r="N12">
-        <v>3.957463975617344</v>
+        <v>1.806012349716838</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3293934182767373</v>
+        <v>0.05141342222549383</v>
       </c>
       <c r="D13">
-        <v>1.438168404040852</v>
+        <v>0.2293944220505182</v>
       </c>
       <c r="E13">
-        <v>0.7824167852716641</v>
+        <v>0.1982034683846621</v>
       </c>
       <c r="F13">
-        <v>24.40633282249331</v>
+        <v>4.517798070352057</v>
       </c>
       <c r="G13">
-        <v>0.0004225871641974675</v>
+        <v>0.002344301391248495</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.22165914944932</v>
+        <v>3.533411939704308</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.82684068374769</v>
+        <v>3.332658864706303</v>
       </c>
       <c r="N13">
-        <v>3.940758417060152</v>
+        <v>1.800035867523434</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3051902627597798</v>
+        <v>0.0506876614671512</v>
       </c>
       <c r="D14">
-        <v>1.335622162213156</v>
+        <v>0.2260523831815817</v>
       </c>
       <c r="E14">
-        <v>0.7495778745648565</v>
+        <v>0.1949106216756746</v>
       </c>
       <c r="F14">
-        <v>22.82361343313227</v>
+        <v>4.45618543862679</v>
       </c>
       <c r="G14">
-        <v>0.0004401859280280365</v>
+        <v>0.002346583881934587</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.97024030079325</v>
+        <v>3.485006306337937</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.02720349129956</v>
+        <v>3.278346284089253</v>
       </c>
       <c r="N14">
-        <v>3.884509128587041</v>
+        <v>1.780552834267695</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2931322959609446</v>
+        <v>0.05024451076228331</v>
       </c>
       <c r="D15">
-        <v>1.284399211384056</v>
+        <v>0.2240109574370877</v>
       </c>
       <c r="E15">
-        <v>0.7327724891275622</v>
+        <v>0.192892879210369</v>
       </c>
       <c r="F15">
-        <v>22.02441425667666</v>
+        <v>4.418542098182115</v>
       </c>
       <c r="G15">
-        <v>0.0004492686943600426</v>
+        <v>0.002347988690150536</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.33863639661905</v>
+        <v>3.455432015256946</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.61383238640389</v>
+        <v>3.24510481509887</v>
       </c>
       <c r="N15">
-        <v>3.849323298327874</v>
+        <v>1.768624770174711</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.242380378198348</v>
+        <v>0.04772591121520975</v>
       </c>
       <c r="D16">
-        <v>1.067789618857347</v>
+        <v>0.2123971003196061</v>
       </c>
       <c r="E16">
-        <v>0.6573870138560878</v>
+        <v>0.1813181640137671</v>
       </c>
       <c r="F16">
-        <v>18.58320800330773</v>
+        <v>4.204263685414219</v>
       </c>
       <c r="G16">
-        <v>0.0004900701208524352</v>
+        <v>0.002356142519152172</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.62120105785874</v>
+        <v>3.287085126205966</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.75825139467707</v>
+        <v>3.05500525445197</v>
       </c>
       <c r="N16">
-        <v>3.64407872980712</v>
+        <v>1.700361132632906</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2193114623486565</v>
+        <v>0.04619893952965981</v>
       </c>
       <c r="D17">
-        <v>0.9687586252961182</v>
+        <v>0.2053456539420324</v>
       </c>
       <c r="E17">
-        <v>0.6198336681545129</v>
+        <v>0.1742069775508739</v>
       </c>
       <c r="F17">
-        <v>16.9773708362232</v>
+        <v>4.074059899465851</v>
       </c>
       <c r="G17">
-        <v>0.0005101791346202976</v>
+        <v>0.00236123745969314</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.35420899340866</v>
+        <v>3.184790769895443</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>11.84858061296728</v>
+        <v>2.938722724572358</v>
       </c>
       <c r="N17">
-        <v>3.517327273301134</v>
+        <v>1.658566720375262</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2076410231063051</v>
+        <v>0.04532710228045289</v>
       </c>
       <c r="D18">
-        <v>0.9185119707201466</v>
+        <v>0.2013158695717721</v>
       </c>
       <c r="E18">
-        <v>0.5998443303576408</v>
+        <v>0.1701130031250173</v>
       </c>
       <c r="F18">
-        <v>16.15484595493348</v>
+        <v>3.999615029725817</v>
       </c>
       <c r="G18">
-        <v>0.000520781672876312</v>
+        <v>0.002364202256895965</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.70549610109651</v>
+        <v>3.126303117286938</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>11.37129570518476</v>
+        <v>2.871958607549288</v>
       </c>
       <c r="N18">
-        <v>3.444453208509174</v>
+        <v>1.634558898975939</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.203900829810479</v>
+        <v>0.04503299825324802</v>
       </c>
       <c r="D19">
-        <v>0.902386803110744</v>
+        <v>0.199955838020486</v>
       </c>
       <c r="E19">
-        <v>0.5932823181217586</v>
+        <v>0.1687262037190322</v>
       </c>
       <c r="F19">
-        <v>15.88977403453214</v>
+        <v>3.974484367971684</v>
       </c>
       <c r="G19">
-        <v>0.0005242453297800928</v>
+        <v>0.00236521200103993</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.49647332091615</v>
+        <v>3.106559161863316</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>11.21579999452237</v>
+        <v>2.849373270436729</v>
       </c>
       <c r="N19">
-        <v>3.419797022630291</v>
+        <v>1.626435689950654</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.221584568358054</v>
+        <v>0.04636081725713836</v>
       </c>
       <c r="D20">
-        <v>0.9785336117772374</v>
+        <v>0.2060935790925669</v>
       </c>
       <c r="E20">
-        <v>0.6236452904711669</v>
+        <v>0.1749643705573263</v>
       </c>
       <c r="F20">
-        <v>17.13677861717429</v>
+        <v>4.087873953701148</v>
       </c>
       <c r="G20">
-        <v>0.0005081489170502152</v>
+        <v>0.002360691546888474</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.47995096343811</v>
+        <v>3.195643772806051</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>11.94017818435756</v>
+        <v>2.951088810370749</v>
       </c>
       <c r="N20">
-        <v>3.530820665042768</v>
+        <v>1.663012591208002</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3115945403376088</v>
+        <v>0.05090054224773155</v>
       </c>
       <c r="D21">
-        <v>1.362791407483087</v>
+        <v>0.2270328342441701</v>
       </c>
       <c r="E21">
-        <v>0.7583729832769421</v>
+        <v>0.1958779730786375</v>
       </c>
       <c r="F21">
-        <v>23.24520584585986</v>
+        <v>4.474262437681091</v>
       </c>
       <c r="G21">
-        <v>0.0004354488280185064</v>
+        <v>0.002345912060441745</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.30350374754053</v>
+        <v>3.49920840382498</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.24265999988307</v>
+        <v>3.294293639757768</v>
       </c>
       <c r="N21">
-        <v>3.901225307473084</v>
+        <v>1.786274256539457</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3115945403376088</v>
+        <v>0.05392952670482032</v>
       </c>
       <c r="D22">
-        <v>1.362791407483087</v>
+        <v>0.2409691384552275</v>
       </c>
       <c r="E22">
-        <v>0.7583729832769421</v>
+        <v>0.2095114726814558</v>
       </c>
       <c r="F22">
-        <v>23.24520584585986</v>
+        <v>4.731055899553553</v>
       </c>
       <c r="G22">
-        <v>0.0004354488280185064</v>
+        <v>0.002336554003770086</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.30350374754053</v>
+        <v>3.700956906678385</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.24265999988307</v>
+        <v>3.519771492498137</v>
       </c>
       <c r="N22">
-        <v>3.901225307473084</v>
+        <v>1.867096790430736</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3115945403376088</v>
+        <v>0.05230699389714744</v>
       </c>
       <c r="D23">
-        <v>1.362791407483087</v>
+        <v>0.2335071070576191</v>
       </c>
       <c r="E23">
-        <v>0.7583729832769421</v>
+        <v>0.2022382347743843</v>
       </c>
       <c r="F23">
-        <v>23.24520584585986</v>
+        <v>4.593594938336764</v>
       </c>
       <c r="G23">
-        <v>0.0004354488280185064</v>
+        <v>0.00234152123362262</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.30350374754053</v>
+        <v>3.592961349025956</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.24265999988307</v>
+        <v>3.399316436483502</v>
       </c>
       <c r="N23">
-        <v>3.901225307473084</v>
+        <v>1.823936799839828</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3115945403376088</v>
+        <v>0.04628761357761846</v>
       </c>
       <c r="D24">
-        <v>1.362791407483087</v>
+        <v>0.2057553670117045</v>
       </c>
       <c r="E24">
-        <v>0.7583729832769421</v>
+        <v>0.1746219707946324</v>
       </c>
       <c r="F24">
-        <v>23.24520584585986</v>
+        <v>4.081627342870831</v>
       </c>
       <c r="G24">
-        <v>0.0004354488280185064</v>
+        <v>0.002360938242903164</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.30350374754053</v>
+        <v>3.190736127570943</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.24265999988307</v>
+        <v>2.945497829364768</v>
       </c>
       <c r="N24">
-        <v>3.901225307473084</v>
+        <v>1.661002549481623</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3115945403376088</v>
+        <v>0.04003824695784886</v>
       </c>
       <c r="D25">
-        <v>1.362791407483087</v>
+        <v>0.1768047496176735</v>
       </c>
       <c r="E25">
-        <v>0.7583729832769421</v>
+        <v>0.1446882789437396</v>
       </c>
       <c r="F25">
-        <v>23.24520584585986</v>
+        <v>3.546230227342079</v>
       </c>
       <c r="G25">
-        <v>0.0004354488280185064</v>
+        <v>0.002383197416242242</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.30350374754053</v>
+        <v>2.770095942708423</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.24265999988307</v>
+        <v>2.460447760820898</v>
       </c>
       <c r="N25">
-        <v>3.901225307473084</v>
+        <v>1.486453699468257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_242/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03562113421745039</v>
+        <v>0.114383332627753</v>
       </c>
       <c r="D2">
-        <v>0.156229611855025</v>
+        <v>0.5127111073852859</v>
       </c>
       <c r="E2">
-        <v>0.1225234119618293</v>
+        <v>0.4063418130913234</v>
       </c>
       <c r="F2">
-        <v>3.164852129049535</v>
+        <v>9.316109673025807</v>
       </c>
       <c r="G2">
-        <v>0.002400743933228427</v>
+        <v>0.0006195381946420134</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.470448866583922</v>
+        <v>7.318000793399932</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.106466521024117</v>
+        <v>7.068339963154557</v>
       </c>
       <c r="N2">
-        <v>1.35901728559125</v>
+        <v>2.612428229034776</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03273057732545226</v>
+        <v>0.0937527007850889</v>
       </c>
       <c r="D3">
-        <v>0.1426978178676563</v>
+        <v>0.4216313299764494</v>
       </c>
       <c r="E3">
-        <v>0.1074248718158941</v>
+        <v>0.3522106407528938</v>
       </c>
       <c r="F3">
-        <v>2.913608175433694</v>
+        <v>7.730140280777675</v>
       </c>
       <c r="G3">
-        <v>0.002413370137977345</v>
+        <v>0.0006463033143504239</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.27303571660488</v>
+        <v>6.070066061288628</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.868222204624544</v>
+        <v>5.97058745065263</v>
       </c>
       <c r="N3">
-        <v>1.273358158093657</v>
+        <v>2.355773612384468</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03100276902115695</v>
+        <v>0.08233484175960371</v>
       </c>
       <c r="D4">
-        <v>0.1345767623620162</v>
+        <v>0.3709484625173616</v>
       </c>
       <c r="E4">
-        <v>0.09811675115843599</v>
+        <v>0.319742542646992</v>
       </c>
       <c r="F4">
-        <v>2.762657873889196</v>
+        <v>6.838531574913759</v>
       </c>
       <c r="G4">
-        <v>0.002421489262605471</v>
+        <v>0.0006623358432298191</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.154420543968172</v>
+        <v>5.368733832754998</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.722656868044112</v>
+        <v>5.333130045783548</v>
       </c>
       <c r="N4">
-        <v>1.221123521883698</v>
+        <v>2.199555769562096</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03030996141485787</v>
+        <v>0.07792039663654293</v>
       </c>
       <c r="D5">
-        <v>0.131312308262693</v>
+        <v>0.3512936568706095</v>
       </c>
       <c r="E5">
-        <v>0.0943143315991648</v>
+        <v>0.3066437459921545</v>
       </c>
       <c r="F5">
-        <v>2.701943552075733</v>
+        <v>6.490924746972723</v>
       </c>
       <c r="G5">
-        <v>0.002424890636847941</v>
+        <v>0.000668816994702226</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.106709905902335</v>
+        <v>5.09535568454254</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.663505478158896</v>
+        <v>5.080276702346183</v>
       </c>
       <c r="N5">
-        <v>1.199930509835099</v>
+        <v>2.136206656911071</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03019558775420705</v>
+        <v>0.07719999076635986</v>
       </c>
       <c r="D6">
-        <v>0.1307728990121007</v>
+        <v>0.3480827816112964</v>
       </c>
       <c r="E6">
-        <v>0.09368238676326968</v>
+        <v>0.3044752961796036</v>
       </c>
       <c r="F6">
-        <v>2.691909267140801</v>
+        <v>6.434037916368567</v>
       </c>
       <c r="G6">
-        <v>0.002425461052072966</v>
+        <v>0.0006698911854903233</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.098824622037171</v>
+        <v>5.05061907986439</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.653693196820456</v>
+        <v>5.038654143253467</v>
       </c>
       <c r="N6">
-        <v>1.196417116903092</v>
+        <v>2.125705430799542</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03099338056129852</v>
+        <v>0.08227442508099614</v>
       </c>
       <c r="D7">
-        <v>0.1345325577030678</v>
+        <v>0.3706796978199236</v>
       </c>
       <c r="E7">
-        <v>0.09806550777720702</v>
+        <v>0.3195654174811011</v>
       </c>
       <c r="F7">
-        <v>2.761835868219691</v>
+        <v>6.833785386723036</v>
       </c>
       <c r="G7">
-        <v>0.002421534758538163</v>
+        <v>0.0006624234080473085</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.153774602206312</v>
+        <v>5.365000979131423</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.721858469403372</v>
+        <v>5.329694497032449</v>
       </c>
       <c r="N7">
-        <v>1.220837325613218</v>
+        <v>2.19870020490697</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03461438913126358</v>
+        <v>0.106956461587032</v>
       </c>
       <c r="D8">
-        <v>0.151523575965399</v>
+        <v>0.4799913791438826</v>
       </c>
       <c r="E8">
-        <v>0.1173253187944709</v>
+        <v>0.38747301393078</v>
       </c>
       <c r="F8">
-        <v>3.077514274894781</v>
+        <v>8.74869559850336</v>
       </c>
       <c r="G8">
-        <v>0.002405021719130892</v>
+        <v>0.0006288847989392583</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.401825141204142</v>
+        <v>6.871463393856118</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.024163024651159</v>
+        <v>6.680623318632598</v>
       </c>
       <c r="N8">
-        <v>1.329408598983633</v>
+        <v>2.523628913915843</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0421130934652183</v>
+        <v>0.1708999424239011</v>
       </c>
       <c r="D9">
-        <v>0.1864348391532644</v>
+        <v>0.7596176625254714</v>
       </c>
       <c r="E9">
-        <v>0.1547909305856052</v>
+        <v>0.5316711648154708</v>
       </c>
       <c r="F9">
-        <v>3.72447873785535</v>
+        <v>13.51925058479804</v>
       </c>
       <c r="G9">
-        <v>0.002375521359838912</v>
+        <v>0.0005563416415158916</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.910140354498338</v>
+        <v>10.6279382031469</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.623302999363773</v>
+        <v>9.787216524703268</v>
       </c>
       <c r="N9">
-        <v>1.545086185056249</v>
+        <v>3.173172367742097</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04790103716578642</v>
+        <v>0.2452958334848176</v>
       </c>
       <c r="D10">
-        <v>0.2132053107636693</v>
+        <v>1.080278698816755</v>
       </c>
       <c r="E10">
-        <v>0.1821290808529028</v>
+        <v>0.6619658405133393</v>
       </c>
       <c r="F10">
-        <v>4.219182146296873</v>
+        <v>18.78428382659587</v>
       </c>
       <c r="G10">
-        <v>0.002355565786795926</v>
+        <v>0.0004876036767252126</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.298805766249416</v>
+        <v>14.77989544304836</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.06829035325751</v>
+        <v>12.87014388133696</v>
       </c>
       <c r="N10">
-        <v>1.705134347064757</v>
+        <v>3.658531255764558</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05060283496126772</v>
+        <v>0.3027599214827745</v>
       </c>
       <c r="D11">
-        <v>0.225661665631776</v>
+        <v>1.325305168319431</v>
       </c>
       <c r="E11">
-        <v>0.1945248136804167</v>
+        <v>0.7462175416241834</v>
       </c>
       <c r="F11">
-        <v>4.448981203440098</v>
+        <v>22.66310049180805</v>
       </c>
       <c r="G11">
-        <v>0.002346852125375361</v>
+        <v>0.0004419992069264754</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.479346337402632</v>
+        <v>17.84337164849191</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.271987933714712</v>
+        <v>14.94470115064951</v>
       </c>
       <c r="N11">
-        <v>1.778271474700631</v>
+        <v>3.877810989436654</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05163652835884136</v>
+        <v>0.3386725074626611</v>
       </c>
       <c r="D12">
-        <v>0.2304214882888402</v>
+        <v>1.477387623599412</v>
       </c>
       <c r="E12">
-        <v>0.1992128554298347</v>
+        <v>0.794758745958525</v>
       </c>
       <c r="F12">
-        <v>4.536729304073049</v>
+        <v>25.00544664818472</v>
       </c>
       <c r="G12">
-        <v>0.002343604177584956</v>
+        <v>0.0004160527674901883</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.548285162186403</v>
+        <v>19.69558360630128</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.349323671978766</v>
+        <v>16.12300731472797</v>
       </c>
       <c r="N12">
-        <v>1.806012349716838</v>
+        <v>3.957463975617344</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05141342222549383</v>
+        <v>0.3293934182762257</v>
       </c>
       <c r="D13">
-        <v>0.2293944220505182</v>
+        <v>1.438168404040937</v>
       </c>
       <c r="E13">
-        <v>0.1982034683846621</v>
+        <v>0.782416785271657</v>
       </c>
       <c r="F13">
-        <v>4.517798070352057</v>
+        <v>24.40633282249252</v>
       </c>
       <c r="G13">
-        <v>0.002344301391248495</v>
+        <v>0.0004225871642163849</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.533411939704308</v>
+        <v>19.22165914944861</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.332658864706303</v>
+        <v>15.82684068374732</v>
       </c>
       <c r="N13">
-        <v>1.800035867523434</v>
+        <v>3.940758417060152</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0506876614671512</v>
+        <v>0.3051902627600072</v>
       </c>
       <c r="D14">
-        <v>0.2260523831815817</v>
+        <v>1.335622162212928</v>
       </c>
       <c r="E14">
-        <v>0.1949106216756746</v>
+        <v>0.7495778745648138</v>
       </c>
       <c r="F14">
-        <v>4.45618543862679</v>
+        <v>22.82361343313232</v>
       </c>
       <c r="G14">
-        <v>0.002346583881934587</v>
+        <v>0.0004401859278810785</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.485006306337937</v>
+        <v>17.97024030079334</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.278346284089253</v>
+        <v>15.02720349129959</v>
       </c>
       <c r="N14">
-        <v>1.780552834267695</v>
+        <v>3.884509128587013</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05024451076228331</v>
+        <v>0.2931322959607314</v>
       </c>
       <c r="D15">
-        <v>0.2240109574370877</v>
+        <v>1.284399211384255</v>
       </c>
       <c r="E15">
-        <v>0.192892879210369</v>
+        <v>0.7327724891275835</v>
       </c>
       <c r="F15">
-        <v>4.418542098182115</v>
+        <v>22.02441425667615</v>
       </c>
       <c r="G15">
-        <v>0.002347988690150536</v>
+        <v>0.0004492686942501916</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.455432015256946</v>
+        <v>17.33863639661851</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.24510481509887</v>
+        <v>14.61383238640366</v>
       </c>
       <c r="N15">
-        <v>1.768624770174711</v>
+        <v>3.849323298327903</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04772591121520975</v>
+        <v>0.2423803781987033</v>
       </c>
       <c r="D16">
-        <v>0.2123971003196061</v>
+        <v>1.06778961885729</v>
       </c>
       <c r="E16">
-        <v>0.1813181640137671</v>
+        <v>0.6573870138561233</v>
       </c>
       <c r="F16">
-        <v>4.204263685414219</v>
+        <v>18.58320800330785</v>
       </c>
       <c r="G16">
-        <v>0.002356142519152172</v>
+        <v>0.0004900701209759178</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.287085126205966</v>
+        <v>14.6212010578588</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.05500525445197</v>
+        <v>12.7582513946771</v>
       </c>
       <c r="N16">
-        <v>1.700361132632906</v>
+        <v>3.64407872980712</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04619893952965981</v>
+        <v>0.219311462348756</v>
       </c>
       <c r="D17">
-        <v>0.2053456539420324</v>
+        <v>0.9687586252961182</v>
       </c>
       <c r="E17">
-        <v>0.1742069775508739</v>
+        <v>0.6198336681544703</v>
       </c>
       <c r="F17">
-        <v>4.074059899465851</v>
+        <v>16.97737083622337</v>
       </c>
       <c r="G17">
-        <v>0.00236123745969314</v>
+        <v>0.0005101791346154984</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.184790769895443</v>
+        <v>13.3542089934088</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.938722724572358</v>
+        <v>11.84858061296731</v>
       </c>
       <c r="N17">
-        <v>1.658566720375262</v>
+        <v>3.517327273301106</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04532710228045289</v>
+        <v>0.2076410231059498</v>
       </c>
       <c r="D18">
-        <v>0.2013158695717721</v>
+        <v>0.9185119707199476</v>
       </c>
       <c r="E18">
-        <v>0.1701130031250173</v>
+        <v>0.5998443303576693</v>
       </c>
       <c r="F18">
-        <v>3.999615029725817</v>
+        <v>16.15484595493353</v>
       </c>
       <c r="G18">
-        <v>0.002364202256895965</v>
+        <v>0.0005207816727870246</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.126303117286938</v>
+        <v>12.70549610109651</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.871958607549288</v>
+        <v>11.37129570518482</v>
       </c>
       <c r="N18">
-        <v>1.634558898975939</v>
+        <v>3.444453208509259</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04503299825324802</v>
+        <v>0.2039008298104932</v>
       </c>
       <c r="D19">
-        <v>0.199955838020486</v>
+        <v>0.9023868031105735</v>
       </c>
       <c r="E19">
-        <v>0.1687262037190322</v>
+        <v>0.5932823181217088</v>
       </c>
       <c r="F19">
-        <v>3.974484367971684</v>
+        <v>15.88977403453214</v>
       </c>
       <c r="G19">
-        <v>0.00236521200103993</v>
+        <v>0.0005242453298718898</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.106559161863316</v>
+        <v>12.49647332091612</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.849373270436729</v>
+        <v>11.21579999452243</v>
       </c>
       <c r="N19">
-        <v>1.626435689950654</v>
+        <v>3.419797022630291</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04636081725713836</v>
+        <v>0.221584568358125</v>
       </c>
       <c r="D20">
-        <v>0.2060935790925669</v>
+        <v>0.9785336117769816</v>
       </c>
       <c r="E20">
-        <v>0.1749643705573263</v>
+        <v>0.6236452904712309</v>
       </c>
       <c r="F20">
-        <v>4.087873953701148</v>
+        <v>17.13677861717468</v>
       </c>
       <c r="G20">
-        <v>0.002360691546888474</v>
+        <v>0.0005081489171850906</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.195643772806051</v>
+        <v>13.47995096343845</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.951088810370749</v>
+        <v>11.94017818435776</v>
       </c>
       <c r="N20">
-        <v>1.663012591208002</v>
+        <v>3.530820665042853</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05090054224773155</v>
+        <v>0.3115945403378078</v>
       </c>
       <c r="D21">
-        <v>0.2270328342441701</v>
+        <v>1.362791407482803</v>
       </c>
       <c r="E21">
-        <v>0.1958779730786375</v>
+        <v>0.758372983276935</v>
       </c>
       <c r="F21">
-        <v>4.474262437681091</v>
+        <v>23.24520584586043</v>
       </c>
       <c r="G21">
-        <v>0.002345912060441745</v>
+        <v>0.000435448828004933</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.49920840382498</v>
+        <v>18.30350374754096</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.294293639757768</v>
+        <v>15.2426599998833</v>
       </c>
       <c r="N21">
-        <v>1.786274256539457</v>
+        <v>3.901225307473169</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05392952670482032</v>
+        <v>0.3115945403378078</v>
       </c>
       <c r="D22">
-        <v>0.2409691384552275</v>
+        <v>1.362791407482803</v>
       </c>
       <c r="E22">
-        <v>0.2095114726814558</v>
+        <v>0.758372983276935</v>
       </c>
       <c r="F22">
-        <v>4.731055899553553</v>
+        <v>23.24520584586043</v>
       </c>
       <c r="G22">
-        <v>0.002336554003770086</v>
+        <v>0.000435448828004933</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.700956906678385</v>
+        <v>18.30350374754096</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.519771492498137</v>
+        <v>15.2426599998833</v>
       </c>
       <c r="N22">
-        <v>1.867096790430736</v>
+        <v>3.901225307473169</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05230699389714744</v>
+        <v>0.3115945403378078</v>
       </c>
       <c r="D23">
-        <v>0.2335071070576191</v>
+        <v>1.362791407482803</v>
       </c>
       <c r="E23">
-        <v>0.2022382347743843</v>
+        <v>0.758372983276935</v>
       </c>
       <c r="F23">
-        <v>4.593594938336764</v>
+        <v>23.24520584586043</v>
       </c>
       <c r="G23">
-        <v>0.00234152123362262</v>
+        <v>0.000435448828004933</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.592961349025956</v>
+        <v>18.30350374754096</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.399316436483502</v>
+        <v>15.2426599998833</v>
       </c>
       <c r="N23">
-        <v>1.823936799839828</v>
+        <v>3.901225307473169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04628761357761846</v>
+        <v>0.3115945403378078</v>
       </c>
       <c r="D24">
-        <v>0.2057553670117045</v>
+        <v>1.362791407482803</v>
       </c>
       <c r="E24">
-        <v>0.1746219707946324</v>
+        <v>0.758372983276935</v>
       </c>
       <c r="F24">
-        <v>4.081627342870831</v>
+        <v>23.24520584586043</v>
       </c>
       <c r="G24">
-        <v>0.002360938242903164</v>
+        <v>0.000435448828004933</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.190736127570943</v>
+        <v>18.30350374754096</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.945497829364768</v>
+        <v>15.2426599998833</v>
       </c>
       <c r="N24">
-        <v>1.661002549481623</v>
+        <v>3.901225307473169</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04003824695784886</v>
+        <v>0.3115945403378078</v>
       </c>
       <c r="D25">
-        <v>0.1768047496176735</v>
+        <v>1.362791407482803</v>
       </c>
       <c r="E25">
-        <v>0.1446882789437396</v>
+        <v>0.758372983276935</v>
       </c>
       <c r="F25">
-        <v>3.546230227342079</v>
+        <v>23.24520584586043</v>
       </c>
       <c r="G25">
-        <v>0.002383197416242242</v>
+        <v>0.000435448828004933</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.770095942708423</v>
+        <v>18.30350374754096</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.460447760820898</v>
+        <v>15.2426599998833</v>
       </c>
       <c r="N25">
-        <v>1.486453699468257</v>
+        <v>3.901225307473169</v>
       </c>
       <c r="O25">
         <v>0</v>
